--- a/templates/sample.xlsx
+++ b/templates/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DINHNV\MyData\LAPTRINH\NODE4\ionic4.qlns\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EC82D5-C723-4D4B-B091-4197957F6C73}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E45B1E-383A-4B23-BB2C-4F699AFBD8AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="435" windowWidth="14055" windowHeight="12405" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="300" windowWidth="14055" windowHeight="12405" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="organizations" sheetId="16" r:id="rId1"/>
@@ -272,13 +272,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="20% - Accent2 2" xfId="32" xr:uid="{9CCA8FE9-6B14-409D-8217-A36B47B0E62F}"/>
@@ -659,7 +659,7 @@
   <dimension ref="B3:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -689,7 +689,7 @@
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F3"/>
@@ -724,10 +724,10 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -735,8 +735,8 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="6" t="s">
         <v>5</v>
       </c>

--- a/templates/sample.xlsx
+++ b/templates/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DINHNV\MyData\LAPTRINH\NODE4\ionic4.qlns\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E45B1E-383A-4B23-BB2C-4F699AFBD8AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16619A5F-D222-4051-A847-7669A3EE4FCB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="300" windowWidth="14055" windowHeight="12405" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10080" yWindow="150" windowWidth="14055" windowHeight="12405" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="organizations" sheetId="16" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Giám đốc công ty</t>
   </si>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t>Mã quản lý</t>
+  </si>
+  <si>
+    <t>Mã cấp trên</t>
+  </si>
+  <si>
+    <t>Tên viết tắt</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
   </si>
 </sst>
 </file>
@@ -77,7 +86,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -129,6 +138,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -258,7 +274,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -272,13 +288,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="20% - Accent2 2" xfId="32" xr:uid="{9CCA8FE9-6B14-409D-8217-A36B47B0E62F}"/>
@@ -656,44 +674,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838C49C0-4525-4B19-A798-BE216164A953}">
-  <dimension ref="B3:G3"/>
+  <dimension ref="A3:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.25" customWidth="1"/>
-    <col min="2" max="2" width="4.875" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1"/>
-    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="12" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F3"/>
-      <c r="G3"/>
+      <c r="F3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -724,10 +750,10 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -735,8 +761,8 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="6" t="s">
         <v>5</v>
       </c>

--- a/templates/sample.xlsx
+++ b/templates/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DINHNV\MyData\LAPTRINH\NODE4\ionic4.qlns\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16619A5F-D222-4051-A847-7669A3EE4FCB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4AEACA-2E8D-4E29-BEF4-B23A659ABBA3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="150" windowWidth="14055" windowHeight="12405" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="495" windowWidth="14055" windowHeight="12405" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="organizations" sheetId="16" r:id="rId1"/>
@@ -288,15 +288,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="20% - Accent2 2" xfId="32" xr:uid="{9CCA8FE9-6B14-409D-8217-A36B47B0E62F}"/>
@@ -677,15 +677,15 @@
   <dimension ref="A3:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="12" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="10" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="16" style="3" customWidth="1"/>
     <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="10.125" bestFit="1" customWidth="1"/>
@@ -712,10 +712,10 @@
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H3"/>
@@ -750,10 +750,10 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="12" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -761,8 +761,8 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
